--- a/Imersão Python Do Excel à Análise de Dados/02_acoes pura.xlsx
+++ b/Imersão Python Do Excel à Análise de Dados/02_acoes pura.xlsx
@@ -3049,7 +3049,7 @@
     <t>Minasmáquinas</t>
   </si>
   <si>
-    <t>nome da empresa</t>
+    <t xml:space="preserve">Nome </t>
   </si>
   <si>
     <t>segmento</t>
@@ -3431,7 +3431,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -3502,6 +3502,9 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
@@ -53240,1155 +53243,1155 @@
       <c r="A1" s="24" t="s">
         <v>1011</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="25" t="s">
         <v>1012</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="26" t="s">
         <v>1013</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="25" t="s">
         <v>1014</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="27" t="s">
         <v>1015</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="27" t="s">
         <v>1016</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="27" t="s">
         <v>1017</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="28" t="s">
         <v>239</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="28" t="s">
         <v>1018</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="28" t="s">
         <v>1019</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="28" t="s">
         <v>1020</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="27" t="s">
         <v>186</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="27" t="s">
         <v>1021</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="27" t="s">
         <v>1022</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="27" t="s">
         <v>1017</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="28" t="s">
         <v>270</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="28" t="s">
         <v>1023</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="28" t="s">
         <v>1024</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="28" t="s">
         <v>1025</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="27" t="s">
         <v>312</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="27" t="s">
         <v>1026</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="27" t="s">
         <v>1027</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="27" t="s">
         <v>1025</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="28" t="s">
         <v>217</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="28" t="s">
         <v>1021</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="28" t="s">
         <v>1028</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="28" t="s">
         <v>1020</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="27" t="s">
         <v>191</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="27" t="s">
         <v>1018</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="27" t="s">
         <v>1029</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="27" t="s">
         <v>1017</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="28" t="s">
         <v>254</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="28" t="s">
         <v>1030</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="28" t="s">
         <v>1031</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="28" t="s">
         <v>1017</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="27" t="s">
         <v>1032</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="27" t="s">
         <v>1033</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="27" t="s">
         <v>1020</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="28" t="s">
         <v>289</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="28" t="s">
         <v>1034</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="28" t="s">
         <v>1035</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="28" t="s">
         <v>1017</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="27" t="s">
         <v>304</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="27" t="s">
         <v>1036</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="27" t="s">
         <v>1037</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="27" t="s">
         <v>1020</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="28" t="s">
         <v>194</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="28" t="s">
         <v>1038</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="28" t="s">
         <v>1039</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="28" t="s">
         <v>1020</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="27" t="s">
         <v>286</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="27" t="s">
         <v>1021</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="27" t="s">
         <v>1040</v>
       </c>
-      <c r="D14" s="26" t="s">
+      <c r="D14" s="27" t="s">
         <v>1020</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="28" t="s">
         <v>202</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="28" t="s">
         <v>1026</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="28" t="s">
         <v>1041</v>
       </c>
-      <c r="D15" s="27" t="s">
+      <c r="D15" s="28" t="s">
         <v>1020</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="27" t="s">
         <v>227</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="27" t="s">
         <v>1015</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="27" t="s">
         <v>1042</v>
       </c>
-      <c r="D16" s="26" t="s">
+      <c r="D16" s="27" t="s">
         <v>1017</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="27" t="s">
+      <c r="A17" s="28" t="s">
         <v>266</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="28" t="s">
         <v>1043</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="28" t="s">
         <v>1044</v>
       </c>
-      <c r="D17" s="27" t="s">
+      <c r="D17" s="28" t="s">
         <v>1017</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="27" t="s">
         <v>253</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="27" t="s">
         <v>1045</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="27" t="s">
         <v>1046</v>
       </c>
-      <c r="D18" s="26" t="s">
+      <c r="D18" s="27" t="s">
         <v>1025</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="27" t="s">
+      <c r="A19" s="28" t="s">
         <v>199</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="28" t="s">
         <v>1047</v>
       </c>
-      <c r="C19" s="27" t="s">
+      <c r="C19" s="28" t="s">
         <v>1048</v>
       </c>
-      <c r="D19" s="27" t="s">
+      <c r="D19" s="28" t="s">
         <v>1017</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="27" t="s">
         <v>260</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="27" t="s">
         <v>1049</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="27" t="s">
         <v>1031</v>
       </c>
-      <c r="D20" s="26" t="s">
+      <c r="D20" s="27" t="s">
         <v>1017</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="27" t="s">
+      <c r="A21" s="28" t="s">
         <v>193</v>
       </c>
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="28" t="s">
         <v>1032</v>
       </c>
-      <c r="C21" s="27" t="s">
+      <c r="C21" s="28" t="s">
         <v>1050</v>
       </c>
-      <c r="D21" s="27" t="s">
+      <c r="D21" s="28" t="s">
         <v>1025</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="26" t="s">
+      <c r="A22" s="27" t="s">
         <v>228</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="27" t="s">
         <v>1051</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="27" t="s">
         <v>1052</v>
       </c>
-      <c r="D22" s="26" t="s">
+      <c r="D22" s="27" t="s">
         <v>1020</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="27" t="s">
+      <c r="A23" s="28" t="s">
         <v>234</v>
       </c>
-      <c r="B23" s="27" t="s">
+      <c r="B23" s="28" t="s">
         <v>1053</v>
       </c>
-      <c r="C23" s="27" t="s">
+      <c r="C23" s="28" t="s">
         <v>1054</v>
       </c>
-      <c r="D23" s="27" t="s">
+      <c r="D23" s="28" t="s">
         <v>1025</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="26" t="s">
+      <c r="A24" s="27" t="s">
         <v>219</v>
       </c>
-      <c r="B24" s="26" t="s">
+      <c r="B24" s="27" t="s">
         <v>1051</v>
       </c>
-      <c r="C24" s="26" t="s">
+      <c r="C24" s="27" t="s">
         <v>1039</v>
       </c>
-      <c r="D24" s="26" t="s">
+      <c r="D24" s="27" t="s">
         <v>1020</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="27" t="s">
+      <c r="A25" s="28" t="s">
         <v>339</v>
       </c>
-      <c r="B25" s="27" t="s">
+      <c r="B25" s="28" t="s">
         <v>1055</v>
       </c>
-      <c r="C25" s="27" t="s">
+      <c r="C25" s="28" t="s">
         <v>1037</v>
       </c>
-      <c r="D25" s="27" t="s">
+      <c r="D25" s="28" t="s">
         <v>1020</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="27" t="s">
         <v>216</v>
       </c>
-      <c r="B26" s="26" t="s">
+      <c r="B26" s="27" t="s">
         <v>1056</v>
       </c>
-      <c r="C26" s="26" t="s">
+      <c r="C26" s="27" t="s">
         <v>1057</v>
       </c>
-      <c r="D26" s="26" t="s">
+      <c r="D26" s="27" t="s">
         <v>1020</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="27" t="s">
+      <c r="A27" s="28" t="s">
         <v>190</v>
       </c>
-      <c r="B27" s="27" t="s">
+      <c r="B27" s="28" t="s">
         <v>1058</v>
       </c>
-      <c r="C27" s="27" t="s">
+      <c r="C27" s="28" t="s">
         <v>1059</v>
       </c>
-      <c r="D27" s="27" t="s">
+      <c r="D27" s="28" t="s">
         <v>1020</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="26" t="s">
+      <c r="A28" s="27" t="s">
         <v>285</v>
       </c>
-      <c r="B28" s="26" t="s">
+      <c r="B28" s="27" t="s">
         <v>1026</v>
       </c>
-      <c r="C28" s="26" t="s">
+      <c r="C28" s="27" t="s">
         <v>1028</v>
       </c>
-      <c r="D28" s="26" t="s">
+      <c r="D28" s="27" t="s">
         <v>1020</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="27" t="s">
+      <c r="A29" s="28" t="s">
         <v>256</v>
       </c>
-      <c r="B29" s="27" t="s">
+      <c r="B29" s="28" t="s">
         <v>1055</v>
       </c>
-      <c r="C29" s="27" t="s">
+      <c r="C29" s="28" t="s">
         <v>1060</v>
       </c>
-      <c r="D29" s="27" t="s">
+      <c r="D29" s="28" t="s">
         <v>1020</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="26" t="s">
+      <c r="A30" s="27" t="s">
         <v>273</v>
       </c>
-      <c r="B30" s="26" t="s">
+      <c r="B30" s="27" t="s">
         <v>1061</v>
       </c>
-      <c r="C30" s="26" t="s">
+      <c r="C30" s="27" t="s">
         <v>1062</v>
       </c>
-      <c r="D30" s="26" t="s">
+      <c r="D30" s="27" t="s">
         <v>1020</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="27" t="s">
+      <c r="A31" s="28" t="s">
         <v>208</v>
       </c>
-      <c r="B31" s="27" t="s">
+      <c r="B31" s="28" t="s">
         <v>1063</v>
       </c>
-      <c r="C31" s="27" t="s">
+      <c r="C31" s="28" t="s">
         <v>1064</v>
       </c>
-      <c r="D31" s="27" t="s">
+      <c r="D31" s="28" t="s">
         <v>1020</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="26" t="s">
+      <c r="A32" s="27" t="s">
         <v>299</v>
       </c>
-      <c r="B32" s="26" t="s">
+      <c r="B32" s="27" t="s">
         <v>1021</v>
       </c>
-      <c r="C32" s="26" t="s">
+      <c r="C32" s="27" t="s">
         <v>1057</v>
       </c>
-      <c r="D32" s="26" t="s">
+      <c r="D32" s="27" t="s">
         <v>1020</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="27" t="s">
+      <c r="A33" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="B33" s="27" t="s">
+      <c r="B33" s="28" t="s">
         <v>1065</v>
       </c>
-      <c r="C33" s="27" t="s">
+      <c r="C33" s="28" t="s">
         <v>1066</v>
       </c>
-      <c r="D33" s="27" t="s">
+      <c r="D33" s="28" t="s">
         <v>1017</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="26" t="s">
+      <c r="A34" s="27" t="s">
         <v>213</v>
       </c>
-      <c r="B34" s="26" t="s">
+      <c r="B34" s="27" t="s">
         <v>1032</v>
       </c>
-      <c r="C34" s="26" t="s">
+      <c r="C34" s="27" t="s">
         <v>1067</v>
       </c>
-      <c r="D34" s="26" t="s">
+      <c r="D34" s="27" t="s">
         <v>1025</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="s">
+      <c r="A35" s="28" t="s">
         <v>251</v>
       </c>
-      <c r="B35" s="27" t="s">
+      <c r="B35" s="28" t="s">
         <v>1068</v>
       </c>
-      <c r="C35" s="27" t="s">
+      <c r="C35" s="28" t="s">
         <v>1069</v>
       </c>
-      <c r="D35" s="27" t="s">
+      <c r="D35" s="28" t="s">
         <v>1025</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="26" t="s">
+      <c r="A36" s="27" t="s">
         <v>255</v>
       </c>
-      <c r="B36" s="26" t="s">
+      <c r="B36" s="27" t="s">
         <v>1015</v>
       </c>
-      <c r="C36" s="26" t="s">
+      <c r="C36" s="27" t="s">
         <v>1070</v>
       </c>
-      <c r="D36" s="26" t="s">
+      <c r="D36" s="27" t="s">
         <v>1025</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="s">
+      <c r="A37" s="28" t="s">
         <v>303</v>
       </c>
-      <c r="B37" s="27" t="s">
+      <c r="B37" s="28" t="s">
         <v>1026</v>
       </c>
-      <c r="C37" s="27" t="s">
+      <c r="C37" s="28" t="s">
         <v>1039</v>
       </c>
-      <c r="D37" s="27" t="s">
+      <c r="D37" s="28" t="s">
         <v>1020</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="26" t="s">
+      <c r="A38" s="27" t="s">
         <v>321</v>
       </c>
-      <c r="B38" s="26" t="s">
+      <c r="B38" s="27" t="s">
         <v>1051</v>
       </c>
-      <c r="C38" s="26" t="s">
+      <c r="C38" s="27" t="s">
         <v>1071</v>
       </c>
-      <c r="D38" s="26" t="s">
+      <c r="D38" s="27" t="s">
         <v>1017</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="s">
+      <c r="A39" s="28" t="s">
         <v>184</v>
       </c>
-      <c r="B39" s="27" t="s">
+      <c r="B39" s="28" t="s">
         <v>1053</v>
       </c>
-      <c r="C39" s="27" t="s">
+      <c r="C39" s="28" t="s">
         <v>1072</v>
       </c>
-      <c r="D39" s="27" t="s">
+      <c r="D39" s="28" t="s">
         <v>1017</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="26" t="s">
+      <c r="A40" s="27" t="s">
         <v>233</v>
       </c>
-      <c r="B40" s="26" t="s">
+      <c r="B40" s="27" t="s">
         <v>1026</v>
       </c>
-      <c r="C40" s="26" t="s">
+      <c r="C40" s="27" t="s">
         <v>1028</v>
       </c>
-      <c r="D40" s="26" t="s">
+      <c r="D40" s="27" t="s">
         <v>1020</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="27" t="s">
+      <c r="A41" s="28" t="s">
         <v>209</v>
       </c>
-      <c r="B41" s="27" t="s">
+      <c r="B41" s="28" t="s">
         <v>1026</v>
       </c>
-      <c r="C41" s="27" t="s">
+      <c r="C41" s="28" t="s">
         <v>1073</v>
       </c>
-      <c r="D41" s="27" t="s">
+      <c r="D41" s="28" t="s">
         <v>1017</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="26" t="s">
+      <c r="A42" s="27" t="s">
         <v>235</v>
       </c>
-      <c r="B42" s="26" t="s">
+      <c r="B42" s="27" t="s">
         <v>1074</v>
       </c>
-      <c r="C42" s="26" t="s">
+      <c r="C42" s="27" t="s">
         <v>1075</v>
       </c>
-      <c r="D42" s="26" t="s">
+      <c r="D42" s="27" t="s">
         <v>1020</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="27" t="s">
+      <c r="A43" s="28" t="s">
         <v>248</v>
       </c>
-      <c r="B43" s="27" t="s">
+      <c r="B43" s="28" t="s">
         <v>1051</v>
       </c>
-      <c r="C43" s="27" t="s">
+      <c r="C43" s="28" t="s">
         <v>1033</v>
       </c>
-      <c r="D43" s="27" t="s">
+      <c r="D43" s="28" t="s">
         <v>1020</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="26" t="s">
+      <c r="A44" s="27" t="s">
         <v>220</v>
       </c>
-      <c r="B44" s="26" t="s">
+      <c r="B44" s="27" t="s">
         <v>1076</v>
       </c>
-      <c r="C44" s="26" t="s">
+      <c r="C44" s="27" t="s">
         <v>1059</v>
       </c>
-      <c r="D44" s="26" t="s">
+      <c r="D44" s="27" t="s">
         <v>1020</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="27" t="s">
+      <c r="A45" s="28" t="s">
         <v>276</v>
       </c>
-      <c r="B45" s="27" t="s">
+      <c r="B45" s="28" t="s">
         <v>1077</v>
       </c>
-      <c r="C45" s="27" t="s">
+      <c r="C45" s="28" t="s">
         <v>1078</v>
       </c>
-      <c r="D45" s="27" t="s">
+      <c r="D45" s="28" t="s">
         <v>1020</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="26" t="s">
+      <c r="A46" s="27" t="s">
         <v>322</v>
       </c>
-      <c r="B46" s="26" t="s">
+      <c r="B46" s="27" t="s">
         <v>1079</v>
       </c>
-      <c r="C46" s="26" t="s">
+      <c r="C46" s="27" t="s">
         <v>1031</v>
       </c>
-      <c r="D46" s="26" t="s">
+      <c r="D46" s="27" t="s">
         <v>1017</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="27" t="s">
+      <c r="A47" s="28" t="s">
         <v>332</v>
       </c>
-      <c r="B47" s="27" t="s">
+      <c r="B47" s="28" t="s">
         <v>1063</v>
       </c>
-      <c r="C47" s="27" t="s">
+      <c r="C47" s="28" t="s">
         <v>1080</v>
       </c>
-      <c r="D47" s="27" t="s">
+      <c r="D47" s="28" t="s">
         <v>1020</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="26" t="s">
+      <c r="A48" s="27" t="s">
         <v>230</v>
       </c>
-      <c r="B48" s="26" t="s">
+      <c r="B48" s="27" t="s">
         <v>1026</v>
       </c>
-      <c r="C48" s="26" t="s">
+      <c r="C48" s="27" t="s">
         <v>1022</v>
       </c>
-      <c r="D48" s="26" t="s">
+      <c r="D48" s="27" t="s">
         <v>1017</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="27" t="s">
+      <c r="A49" s="28" t="s">
         <v>288</v>
       </c>
-      <c r="B49" s="27" t="s">
+      <c r="B49" s="28" t="s">
         <v>1026</v>
       </c>
-      <c r="C49" s="27" t="s">
+      <c r="C49" s="28" t="s">
         <v>1016</v>
       </c>
-      <c r="D49" s="27" t="s">
+      <c r="D49" s="28" t="s">
         <v>1017</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="26" t="s">
+      <c r="A50" s="27" t="s">
         <v>298</v>
       </c>
-      <c r="B50" s="26" t="s">
+      <c r="B50" s="27" t="s">
         <v>1026</v>
       </c>
-      <c r="C50" s="26" t="s">
+      <c r="C50" s="27" t="s">
         <v>1081</v>
       </c>
-      <c r="D50" s="26" t="s">
+      <c r="D50" s="27" t="s">
         <v>1020</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="27" t="s">
+      <c r="A51" s="28" t="s">
         <v>252</v>
       </c>
-      <c r="B51" s="27" t="s">
+      <c r="B51" s="28" t="s">
         <v>1082</v>
       </c>
-      <c r="C51" s="27" t="s">
+      <c r="C51" s="28" t="s">
         <v>1083</v>
       </c>
-      <c r="D51" s="27" t="s">
+      <c r="D51" s="28" t="s">
         <v>1017</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="26" t="s">
+      <c r="A52" s="27" t="s">
         <v>326</v>
       </c>
-      <c r="B52" s="26" t="s">
+      <c r="B52" s="27" t="s">
         <v>1084</v>
       </c>
-      <c r="C52" s="26" t="s">
+      <c r="C52" s="27" t="s">
         <v>1085</v>
       </c>
-      <c r="D52" s="26" t="s">
+      <c r="D52" s="27" t="s">
         <v>1017</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="27" t="s">
+      <c r="A53" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="B53" s="27" t="s">
+      <c r="B53" s="28" t="s">
         <v>1026</v>
       </c>
-      <c r="C53" s="27" t="s">
+      <c r="C53" s="28" t="s">
         <v>1075</v>
       </c>
-      <c r="D53" s="27" t="s">
+      <c r="D53" s="28" t="s">
         <v>1020</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="26" t="s">
+      <c r="A54" s="27" t="s">
         <v>302</v>
       </c>
-      <c r="B54" s="26" t="s">
+      <c r="B54" s="27" t="s">
         <v>1086</v>
       </c>
-      <c r="C54" s="26" t="s">
+      <c r="C54" s="27" t="s">
         <v>1041</v>
       </c>
-      <c r="D54" s="26" t="s">
+      <c r="D54" s="27" t="s">
         <v>1020</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="27" t="s">
+      <c r="A55" s="28" t="s">
         <v>195</v>
       </c>
-      <c r="B55" s="27" t="s">
+      <c r="B55" s="28" t="s">
         <v>1043</v>
       </c>
-      <c r="C55" s="27" t="s">
+      <c r="C55" s="28" t="s">
         <v>1087</v>
       </c>
-      <c r="D55" s="27" t="s">
+      <c r="D55" s="28" t="s">
         <v>1017</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="26" t="s">
+      <c r="A56" s="27" t="s">
         <v>356</v>
       </c>
-      <c r="B56" s="26" t="s">
+      <c r="B56" s="27" t="s">
         <v>1026</v>
       </c>
-      <c r="C56" s="26" t="s">
+      <c r="C56" s="27" t="s">
         <v>1062</v>
       </c>
-      <c r="D56" s="26" t="s">
+      <c r="D56" s="27" t="s">
         <v>1020</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="27" t="s">
+      <c r="A57" s="28" t="s">
         <v>357</v>
       </c>
-      <c r="B57" s="27" t="s">
+      <c r="B57" s="28" t="s">
         <v>1026</v>
       </c>
-      <c r="C57" s="27" t="s">
+      <c r="C57" s="28" t="s">
         <v>1088</v>
       </c>
-      <c r="D57" s="27" t="s">
+      <c r="D57" s="28" t="s">
         <v>1020</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="26" t="s">
+      <c r="A58" s="27" t="s">
         <v>295</v>
       </c>
-      <c r="B58" s="26" t="s">
+      <c r="B58" s="27" t="s">
         <v>1026</v>
       </c>
-      <c r="C58" s="26" t="s">
+      <c r="C58" s="27" t="s">
         <v>1089</v>
       </c>
-      <c r="D58" s="26" t="s">
+      <c r="D58" s="27" t="s">
         <v>1020</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="27" t="s">
+      <c r="A59" s="28" t="s">
         <v>316</v>
       </c>
-      <c r="B59" s="27" t="s">
+      <c r="B59" s="28" t="s">
         <v>1090</v>
       </c>
-      <c r="C59" s="27" t="s">
+      <c r="C59" s="28" t="s">
         <v>1091</v>
       </c>
-      <c r="D59" s="27" t="s">
+      <c r="D59" s="28" t="s">
         <v>1025</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="26" t="s">
+      <c r="A60" s="27" t="s">
         <v>198</v>
       </c>
-      <c r="B60" s="26" t="s">
+      <c r="B60" s="27" t="s">
         <v>1068</v>
       </c>
-      <c r="C60" s="26" t="s">
+      <c r="C60" s="27" t="s">
         <v>1092</v>
       </c>
-      <c r="D60" s="26" t="s">
+      <c r="D60" s="27" t="s">
         <v>1020</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="27" t="s">
+      <c r="A61" s="28" t="s">
         <v>331</v>
       </c>
-      <c r="B61" s="27" t="s">
+      <c r="B61" s="28" t="s">
         <v>1047</v>
       </c>
-      <c r="C61" s="27" t="s">
+      <c r="C61" s="28" t="s">
         <v>1093</v>
       </c>
-      <c r="D61" s="27" t="s">
+      <c r="D61" s="28" t="s">
         <v>1020</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="26" t="s">
+      <c r="A62" s="27" t="s">
         <v>307</v>
       </c>
-      <c r="B62" s="26" t="s">
+      <c r="B62" s="27" t="s">
         <v>1034</v>
       </c>
-      <c r="C62" s="26" t="s">
+      <c r="C62" s="27" t="s">
         <v>1094</v>
       </c>
-      <c r="D62" s="26" t="s">
+      <c r="D62" s="27" t="s">
         <v>1025</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="27" t="s">
+      <c r="A63" s="28" t="s">
         <v>212</v>
       </c>
-      <c r="B63" s="27" t="s">
+      <c r="B63" s="28" t="s">
         <v>1095</v>
       </c>
-      <c r="C63" s="27" t="s">
+      <c r="C63" s="28" t="s">
         <v>1096</v>
       </c>
-      <c r="D63" s="27" t="s">
+      <c r="D63" s="28" t="s">
         <v>1020</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="26" t="s">
+      <c r="A64" s="27" t="s">
         <v>325</v>
       </c>
-      <c r="B64" s="26" t="s">
+      <c r="B64" s="27" t="s">
         <v>1049</v>
       </c>
-      <c r="C64" s="26" t="s">
+      <c r="C64" s="27" t="s">
         <v>1097</v>
       </c>
-      <c r="D64" s="26" t="s">
+      <c r="D64" s="27" t="s">
         <v>1025</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="27" t="s">
+      <c r="A65" s="28" t="s">
         <v>244</v>
       </c>
-      <c r="B65" s="27" t="s">
+      <c r="B65" s="28" t="s">
         <v>1047</v>
       </c>
-      <c r="C65" s="27" t="s">
+      <c r="C65" s="28" t="s">
         <v>1016</v>
       </c>
-      <c r="D65" s="27" t="s">
+      <c r="D65" s="28" t="s">
         <v>1017</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="26" t="s">
+      <c r="A66" s="27" t="s">
         <v>287</v>
       </c>
-      <c r="B66" s="26" t="s">
+      <c r="B66" s="27" t="s">
         <v>1098</v>
       </c>
-      <c r="C66" s="26" t="s">
+      <c r="C66" s="27" t="s">
         <v>1044</v>
       </c>
-      <c r="D66" s="26" t="s">
+      <c r="D66" s="27" t="s">
         <v>1017</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="27" t="s">
+      <c r="A67" s="28" t="s">
         <v>200</v>
       </c>
-      <c r="B67" s="27" t="s">
+      <c r="B67" s="28" t="s">
         <v>1099</v>
       </c>
-      <c r="C67" s="27" t="s">
+      <c r="C67" s="28" t="s">
         <v>1044</v>
       </c>
-      <c r="D67" s="27" t="s">
+      <c r="D67" s="28" t="s">
         <v>1017</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="26" t="s">
+      <c r="A68" s="27" t="s">
         <v>229</v>
       </c>
-      <c r="B68" s="26" t="s">
+      <c r="B68" s="27" t="s">
         <v>1053</v>
       </c>
-      <c r="C68" s="26" t="s">
+      <c r="C68" s="27" t="s">
         <v>1100</v>
       </c>
-      <c r="D68" s="26" t="s">
+      <c r="D68" s="27" t="s">
         <v>1017</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="27" t="s">
+      <c r="A69" s="28" t="s">
         <v>187</v>
       </c>
-      <c r="B69" s="27" t="s">
+      <c r="B69" s="28" t="s">
         <v>1101</v>
       </c>
-      <c r="C69" s="27" t="s">
+      <c r="C69" s="28" t="s">
         <v>1037</v>
       </c>
-      <c r="D69" s="27" t="s">
+      <c r="D69" s="28" t="s">
         <v>1020</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="26" t="s">
+      <c r="A70" s="27" t="s">
         <v>263</v>
       </c>
-      <c r="B70" s="26" t="s">
+      <c r="B70" s="27" t="s">
         <v>1102</v>
       </c>
-      <c r="C70" s="26" t="s">
+      <c r="C70" s="27" t="s">
         <v>1092</v>
       </c>
-      <c r="D70" s="26" t="s">
+      <c r="D70" s="27" t="s">
         <v>1020</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="27" t="s">
+      <c r="A71" s="28" t="s">
         <v>290</v>
       </c>
-      <c r="B71" s="27" t="s">
+      <c r="B71" s="28" t="s">
         <v>1103</v>
       </c>
-      <c r="C71" s="27" t="s">
+      <c r="C71" s="28" t="s">
         <v>1104</v>
       </c>
-      <c r="D71" s="27" t="s">
+      <c r="D71" s="28" t="s">
         <v>1025</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="26" t="s">
+      <c r="A72" s="27" t="s">
         <v>185</v>
       </c>
-      <c r="B72" s="26" t="s">
+      <c r="B72" s="27" t="s">
         <v>1034</v>
       </c>
-      <c r="C72" s="26" t="s">
+      <c r="C72" s="27" t="s">
         <v>1035</v>
       </c>
-      <c r="D72" s="26" t="s">
+      <c r="D72" s="27" t="s">
         <v>1017</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="27" t="s">
+      <c r="A73" s="28" t="s">
         <v>201</v>
       </c>
-      <c r="B73" s="27" t="s">
+      <c r="B73" s="28" t="s">
         <v>1053</v>
       </c>
-      <c r="C73" s="27" t="s">
+      <c r="C73" s="28" t="s">
         <v>1105</v>
       </c>
-      <c r="D73" s="27" t="s">
+      <c r="D73" s="28" t="s">
         <v>1017</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="26" t="s">
+      <c r="A74" s="27" t="s">
         <v>259</v>
       </c>
-      <c r="B74" s="26" t="s">
+      <c r="B74" s="27" t="s">
         <v>1053</v>
       </c>
-      <c r="C74" s="26" t="s">
+      <c r="C74" s="27" t="s">
         <v>1035</v>
       </c>
-      <c r="D74" s="26" t="s">
+      <c r="D74" s="27" t="s">
         <v>1017</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="27" t="s">
+      <c r="A75" s="28" t="s">
         <v>269</v>
       </c>
-      <c r="B75" s="27" t="s">
+      <c r="B75" s="28" t="s">
         <v>1053</v>
       </c>
-      <c r="C75" s="27" t="s">
+      <c r="C75" s="28" t="s">
         <v>1022</v>
       </c>
-      <c r="D75" s="27" t="s">
+      <c r="D75" s="28" t="s">
         <v>1017</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="26" t="s">
+      <c r="A76" s="27" t="s">
         <v>203</v>
       </c>
-      <c r="B76" s="26" t="s">
+      <c r="B76" s="27" t="s">
         <v>1106</v>
       </c>
-      <c r="C76" s="26" t="s">
+      <c r="C76" s="27" t="s">
         <v>1107</v>
       </c>
-      <c r="D76" s="26" t="s">
+      <c r="D76" s="27" t="s">
         <v>1017</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="27" t="s">
+      <c r="A77" s="28" t="s">
         <v>189</v>
       </c>
-      <c r="B77" s="27" t="s">
+      <c r="B77" s="28" t="s">
         <v>1108</v>
       </c>
-      <c r="C77" s="27" t="s">
+      <c r="C77" s="28" t="s">
         <v>1109</v>
       </c>
-      <c r="D77" s="27" t="s">
+      <c r="D77" s="28" t="s">
         <v>1017</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="26" t="s">
+      <c r="A78" s="27" t="s">
         <v>192</v>
       </c>
-      <c r="B78" s="26" t="s">
+      <c r="B78" s="27" t="s">
         <v>1038</v>
       </c>
-      <c r="C78" s="26" t="s">
+      <c r="C78" s="27" t="s">
         <v>1092</v>
       </c>
-      <c r="D78" s="26" t="s">
+      <c r="D78" s="27" t="s">
         <v>1020</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="27" t="s">
+      <c r="A79" s="28" t="s">
         <v>236</v>
       </c>
-      <c r="B79" s="27" t="s">
+      <c r="B79" s="28" t="s">
         <v>1015</v>
       </c>
-      <c r="C79" s="27" t="s">
+      <c r="C79" s="28" t="s">
         <v>1070</v>
       </c>
-      <c r="D79" s="27" t="s">
+      <c r="D79" s="28" t="s">
         <v>1025</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="26"/>
-      <c r="B80" s="26"/>
-      <c r="C80" s="26"/>
-      <c r="D80" s="26"/>
+      <c r="A80" s="27"/>
+      <c r="B80" s="27"/>
+      <c r="C80" s="27"/>
+      <c r="D80" s="27"/>
     </row>
     <row r="81">
-      <c r="A81" s="27"/>
-      <c r="B81" s="27"/>
-      <c r="C81" s="27"/>
-      <c r="D81" s="27"/>
+      <c r="A81" s="28"/>
+      <c r="B81" s="28"/>
+      <c r="C81" s="28"/>
+      <c r="D81" s="28"/>
     </row>
     <row r="82">
-      <c r="A82" s="26"/>
-      <c r="B82" s="26"/>
-      <c r="C82" s="26"/>
-      <c r="D82" s="26"/>
+      <c r="A82" s="27"/>
+      <c r="B82" s="27"/>
+      <c r="C82" s="27"/>
+      <c r="D82" s="27"/>
     </row>
     <row r="83">
-      <c r="A83" s="27"/>
-      <c r="B83" s="27"/>
-      <c r="C83" s="27"/>
-      <c r="D83" s="27"/>
+      <c r="A83" s="28"/>
+      <c r="B83" s="28"/>
+      <c r="C83" s="28"/>
+      <c r="D83" s="28"/>
     </row>
     <row r="84">
-      <c r="A84" s="26"/>
-      <c r="B84" s="26"/>
-      <c r="C84" s="26"/>
-      <c r="D84" s="26"/>
+      <c r="A84" s="27"/>
+      <c r="B84" s="27"/>
+      <c r="C84" s="27"/>
+      <c r="D84" s="27"/>
     </row>
     <row r="85">
-      <c r="A85" s="27"/>
-      <c r="B85" s="27"/>
-      <c r="C85" s="27"/>
-      <c r="D85" s="27"/>
+      <c r="A85" s="28"/>
+      <c r="B85" s="28"/>
+      <c r="C85" s="28"/>
+      <c r="D85" s="28"/>
     </row>
     <row r="86">
-      <c r="A86" s="26"/>
-      <c r="B86" s="26"/>
-      <c r="C86" s="26"/>
-      <c r="D86" s="26"/>
+      <c r="A86" s="27"/>
+      <c r="B86" s="27"/>
+      <c r="C86" s="27"/>
+      <c r="D86" s="27"/>
     </row>
     <row r="87">
-      <c r="A87" s="27"/>
-      <c r="B87" s="27"/>
-      <c r="C87" s="27"/>
-      <c r="D87" s="27"/>
+      <c r="A87" s="28"/>
+      <c r="B87" s="28"/>
+      <c r="C87" s="28"/>
+      <c r="D87" s="28"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
